--- a/biology/Zoologie/Brissus_humberti/Brissus_humberti.xlsx
+++ b/biology/Zoologie/Brissus_humberti/Brissus_humberti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Brissus humberti est une espèce éteinte et rare d'oursin irrégulier de la famille des Brissidae (ordre des Spatangoida), que l'on trouve notamment dans les Faluns de Bretagne. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite comme suit par Yves Bazin de Jessey[1] : Espèce de taille moyenne, allongée, ovale, peu renflée; face supérieure légèrement convexe, fortement carénée dans sa région postérieure; mais la carène aiguë semble provenir d'une pression et comme d'une fracture du test. Sommet ambulacraire assez excentrique en avant : sillon antérieur nul : aire ambulacraire impaire droite, indiquée seulement par quelques pores peu visibles. Aires ambulacraires paires antérieures divergentes, un peu élevées en avant, pétaloïdes : les postérieures sont plus droites, plus longues et plus larges. Zones porifères ayant leurs pores, petits, ronds et semblables unis par des sillons : bien incomplètes dans l'exemplaire dessiné. Le périprocte, large et oval, s'ouvre dans la face postérieure. L'appareil apicial laisse plutôt deviner que distinguer quatre pores génitaux. Les fascioles sont invisibles. .
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite comme suit par Yves Bazin de Jessey : Espèce de taille moyenne, allongée, ovale, peu renflée; face supérieure légèrement convexe, fortement carénée dans sa région postérieure; mais la carène aiguë semble provenir d'une pression et comme d'une fracture du test. Sommet ambulacraire assez excentrique en avant : sillon antérieur nul : aire ambulacraire impaire droite, indiquée seulement par quelques pores peu visibles. Aires ambulacraires paires antérieures divergentes, un peu élevées en avant, pétaloïdes : les postérieures sont plus droites, plus longues et plus larges. Zones porifères ayant leurs pores, petits, ronds et semblables unis par des sillons : bien incomplètes dans l'exemplaire dessiné. Le périprocte, large et oval, s'ouvre dans la face postérieure. L'appareil apicial laisse plutôt deviner que distinguer quatre pores génitaux. Les fascioles sont invisibles. .
 Il est connu seulement par un unique spécimen incomplet.
 </t>
         </is>
